--- a/Technical_Documentation/Requirements/UD-SRS-traceability.xlsx
+++ b/Technical_Documentation/Requirements/UD-SRS-traceability.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fie_b\Documents\GitHub\ST6\Technical_Documentation\Requirements\System requirement specification\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fie_b\Documents\GitHub\ST6\Technical_Documentation\Requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42DE265E-E44D-4EC1-A97D-FDC6E7A3C69D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC66A93-039B-4833-A203-F4341BF7FE50}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{B54773BD-5F2B-AF4D-8A1D-6E44CC84DFDA}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="80">
   <si>
     <t xml:space="preserve">SRS ID </t>
   </si>
@@ -282,6 +282,9 @@
   </si>
   <si>
     <t xml:space="preserve">The predetermined stimulation parameters defined by InnoCon Medical shall be shown on the interface. </t>
+  </si>
+  <si>
+    <t>UD-CRS</t>
   </si>
 </sst>
 </file>
@@ -756,8 +759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{865C1865-B44B-7648-9539-419D8238798C}">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="122" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -929,7 +932,7 @@
         <v>65</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="D11" s="13"/>
       <c r="E11" s="13" t="s">
